--- a/Project_Selenium_2/danh_sach_sp_long_chau.xlsx
+++ b/Project_Selenium_2/danh_sach_sp_long_chau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Viên uống Immuvita Easylife bổ sung vitamin và khoáng chất cho cơ thể, tăng sức khỏe (100 viên)</t>
+          <t>Viên uống giảm ho Nano Anpacov Biochempha (60 viên)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>390.000đ / Hộp</t>
+          <t>149.000đ / Hộp</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05505_4c243a16f9.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09876_48f43712fc.png</t>
         </is>
       </c>
     </row>
@@ -481,17 +481,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Siro ống uống Canxi-D3-K2 5ml Kingphar bổ sung canxi &amp; vitamin D3 cho cơ thể (6 vỉ x 5 ống)</t>
+          <t>Cốm vi sinh bổ sung lợi khuẩn đường ruột Lacto Biomin Gold+ New Hdpharma (20 gói x 5g)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>105.000đ / Hộp</t>
+          <t>149.000đ / Hộp</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04874_6c29236c37.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_9747_0837e2146a.png</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Siro Brauer Baby Kids D3+k2 High Potency MK-7 Drops bổ sung vitamin D3 và vitamin K2 (10ml)</t>
+          <t>Thực phẩm bảo vệ sức khoẻ Hoạt Huyết Thông Mạch Gold TW3 Foripharm hỗ trợ giảm nguy cơ tắc mạch (3 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>396.000đ / Hộp</t>
+          <t>120.000đ / Hộp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04996_7d25dc3860.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05151_0c39e73eec.png</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Viên uống Omexxel 3-6-9 Premium hỗ trợ tốt cho não và mắt (100 viên)</t>
+          <t>Dung dịch D3 Drops 10ml Dao Nordic Health bổ sung vitamin D3, hỗ trợ phát triển của xương</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>453.000đ / Hộp</t>
+          <t>270.000đ / Hộp</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09384_b9a30a1717.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01841_7ea3c478cf.jpg</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Viên uống Brauer Ultra Pure DHA For Pregnancy &amp; Breastfeeding hỗ trợ tăng cường sức khoẻ phụ nữ mang thai và cho con bú (60 viên)</t>
+          <t>Viên uống Golex Ocavill hỗ trợ chống lại sự phình to của tuyến tiền liệt, cải thiện các rối loạn tiểu tiện (30 viên)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>550.000đ / Hộp</t>
+          <t>495.000đ / Hộp</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09544_d2a3970fcb.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01882_6d5690a9d4.jpg</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Kids Multivitamins Plus Calcium &amp; D3 hương dưa hấu giúp bổ sung calci và vitamin cho cơ thể (20 viên)</t>
+          <t>Siro Bổ Phế Lábebé 120ml hỗ trợ bổ phế, giảm ho, giảm đờm, giảm đau họng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>127.200đ / Tuýp</t>
+          <t>75.000đ / Hộp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09365_33ea32b9d1.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09352_ae155b3fe6.jpg</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Daily Vitamins Plus Biotin &amp; Ginseng hương cam giúp bổ sung vitamin cho cơ thể (20 viên)</t>
+          <t>Viên uống Omega 3 Power DAO Nordic Health hỗ trợ tăng cường sức khoẻ tim mạch, giảm mỡ máu (120 viên)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111.200đ / Tuýp</t>
+          <t>330.000đ / Hộp</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09335_24b9811179.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08880_009cf2ede8.jpg</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Vitamin C 1000mg hương chanh giúp bổ sung vitamin C cho cơ thể (20 viên)</t>
+          <t>Viên uống Immuvita Easylife bổ sung vitamin và khoáng chất cho cơ thể, tăng sức khỏe (100 viên)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>100.800đ / Tuýp</t>
+          <t>390.000đ / Hộp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09324_db795e136a.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05505_4c243a16f9.jpg</t>
         </is>
       </c>
     </row>
@@ -621,17 +621,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Viên sủi Kudos Bone hương cam bổ sung canxi, vitamin K2, vitamin D3 cho cơ thể (20 viên)</t>
+          <t>Siro ống uống Canxi-D3-K2 5ml Kingphar bổ sung canxi &amp; vitamin D3 cho cơ thể (6 vỉ x 5 ống)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>100.800đ / Tuýp</t>
+          <t>105.000đ / Hộp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09344_b38a024079.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04874_6c29236c37.jpg</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Siro ZinC + Lysin Hatro bổ sung kẽm, hỗ trợ tăng sức đề kháng cho trẻ (120ml)</t>
+          <t>Viên uống Đông Trùng Hạ Thảo Pharma World Cordyceps 1500mg hỗ trợ tốt cho phổi và thận (60 viên)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>150.000đ / Hộp</t>
+          <t>595.000đ / Hộp</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08313_1efe9a74d1.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05122_588867ef68.jpg</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Prenatal One Vitamins For Life cung cấp DHA, vitamin và khoáng chất</t>
+          <t>Siro Brauer Baby Kids D3+k2 High Potency MK-7 Drops bổ sung vitamin D3 và vitamin K2 (10ml)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>660.000đ / Hộp</t>
+          <t>396.000đ / Hộp</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00115_72e83dcffe.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04996_7d25dc3860.jpg</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dung dịch Feginic bổ sung sắt cho người thiếu máu do thiếu sắt (4 vỉ x 5 ống x 5ml)</t>
+          <t>Thực phẩm bảo vệ sức khỏe KID GROW Kenko tăng cường sức đề kháng và chiều cao cho trẻ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>108.000đ / Hộp</t>
+          <t>480.000đ / Hộp</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501604_ong_uong_bo_sung_sat_feginic_4x5_ong_5ml_7086_62f9_large_b9aea30e80.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05045_e0f976ccc5.jpg</t>
         </is>
       </c>
     </row>
@@ -701,17 +701,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Viên uống Multivitamin +Zn +D3 Royal Care hỗ trợ tăng cường sức khỏe, nâng cao sức đề kháng (60 viên)</t>
+          <t>Thực phẩm bảo vệ sức khỏe OMEGA 3 PLUS Kenko hỗ trợ não bộ, thị lực và sức khoẻ tim mạch (120 viên)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>175.000đ / Hộp</t>
+          <t>920.000đ / Hộp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08020_1cb976cef9.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05020_ce6da165fb.jpg</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Viên uống Dr. Caci Ocavill giúp xương và răng chắc khỏe (60 viên)</t>
+          <t>Viên uống Omexxel Ginkgo 120 Premium hỗ trợ tốt cho não và tim mạch (60 viên)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>570.000đ / Hộp</t>
+          <t>788.000đ / Hộp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08680_827789c4f8.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09431_43751644ff.jpg</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Viên uống B Complex Vitamin Royal Care hỗ trợ giảm mệt mỏi, căng thẳng (60 viên)</t>
+          <t>Viên uống Omexxel 3-6-9 Premium hỗ trợ tốt cho não và mắt (100 viên)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>160.000đ / Hộp</t>
+          <t>453.000đ / Hộp</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032942_b_complex_vitamin_royal_care_60v_5253_61c0_large_17e5e39343.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09384_b9a30a1717.jpg</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Viên nén Multi Vitas Lab Well bổ sung vitamin và khoáng chất cho cơ thể (60 viên)</t>
+          <t>Viên uống SkillMax Ocavill hỗ trợ tăng cường thị lực, cải thiện các triệu chứng khô mắt, mỏi mắt (2 vỉ x 15 viên)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>340.000đ / Hộp</t>
+          <t>670.000đ / Hộp</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08333_0d6a18e346.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08597_11fd7bb1fe.jpg</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Viên uống Teens Active Vitamins For Life bổ sung vitamin và khoáng chất cho thanh thiếu niên (60 viên)</t>
+          <t>Viên uống Pikolin Ocavill hỗ trợ tăng tuần hoàn máu não, giảm hình thành cục máu đông (2 vỉ x 15 viên)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>350.000đ / Hộp</t>
+          <t>615.000đ / Hộp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345388_teens_active_bo_sung_vitamin_cho_thieu_nien_5186_63a9_large_c8259bcfea.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08507_dda074fe01.png</t>
         </is>
       </c>
     </row>
@@ -801,17 +801,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Natural Vitamin E 400 IU giúp cải thiện sức khỏe da và phục hồi da (60 viên)</t>
+          <t>Viên nhai Borne Mineral New Nordic hỗ trợ phát triển xương, giúp tăng chiều cao, tăng đề kháng (120 viên)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>251.000đ / Hộp</t>
+          <t>635.000đ / Hộp</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08384_9ef40feeb4.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08913_afa4db8279.jpg</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Viên uống Mega-Cal 1000 Vitamins For Life giúp bổ sung canxi, chống loãng xương (60 viên)</t>
+          <t>Thực phẩm bảo vệ sức khỏe Calcium Premium JpanWell bổ sung canxi, giảm nguy cơ loãng xương (120 viên)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>320.000đ / Hộp</t>
+          <t>920.000đ / Hộp</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08888_30b53ffbee.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09985_6ae3f52230.jpg</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Viên uống Happy Mom Jpanwell bổ sung vitamin và khoáng chất (60 viên)</t>
+          <t>Viên uống Brauer Ultra Pure DHA For Pregnancy &amp; Breastfeeding hỗ trợ tăng cường sức khoẻ phụ nữ mang thai và cho con bú (60 viên)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>815.000đ / Hộp</t>
+          <t>550.000đ / Hộp</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021932_happy_mom_jpanwell_60v_5688_5ff7_large_8cba32414f.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09544_d2a3970fcb.jpg</t>
         </is>
       </c>
     </row>
@@ -861,17 +861,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Viên uống Anica Ocavill bổ sung Canxi và Vitamin D3 (60 viên)</t>
+          <t>Viên sủi Kudos Kids Multivitamins Plus Calcium &amp; D3 hương dưa hấu giúp bổ sung calci và vitamin cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>560.000đ / Hộp</t>
+          <t>127.200đ / Tuýp</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01865_3fa66c5ff7.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09365_33ea32b9d1.jpg</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Viên uống Omexxel 3-6-9 tốt cho trí não, giúp bổ mắt (100 viên)</t>
+          <t>Viên sủi Kudos Daily Vitamins Plus Biotin &amp; Ginseng hương cam giúp bổ sung vitamin cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>378.000đ / Hộp</t>
+          <t>111.200đ / Tuýp</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09409_77358c32d7.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09335_24b9811179.jpg</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Siro Morningkids Multivitamin Bổ sung Vitamin và khoáng chất (150ml)</t>
+          <t>Viên sủi Kudos Vitamin C 1000mg hương chanh giúp bổ sung vitamin C cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>275.000đ / Chai</t>
+          <t>100.800đ / Tuýp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029661_morningkids_multivitamin_150ml_8912_6019_large_85f579207c.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09324_db795e136a.jpg</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Viên uống Omega-3 For Kids Nutrimed giúp trẻ phát triển trí não, thị lực (100 viên)</t>
+          <t>Siro Immune Defence Probiotic Liquid Brauer giúp tăng cường sức đề kháng và tốt cho đường ruột (45ml)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>450.000đ / Hộp</t>
+          <t>550.000đ / Hộp</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029877_omega_3_for_kids_300mg_nutrimed_international_100v_6416_633e_large_20c893600c.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08363_4cc0bfe6e0.jpg</t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Viên uống C 500mg Nature's Bounty bổ sung vitamin C, tăng cường sức đề kháng (100 viên)</t>
+          <t>Viên sủi Kudos Bone hương cam bổ sung canxi, vitamin K2, vitamin D3 cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>325.000đ / Hộp</t>
+          <t>100.800đ / Tuýp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00031901_vien_uong_bo_sung_vitamin_c_natures_bounty_time_released_c_500mg_100v_6031_62ae_large_f8e2ab95d4.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09344_b38a024079.jpg</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Viên uống Calcium Magnesium Zinc Nature's Bounty hỗ trợ duy trì sức khoẻ hệ xương (100 viên)</t>
+          <t>Siro ZinC + Lysin Hatro bổ sung kẽm, hỗ trợ tăng sức đề kháng cho trẻ (120ml)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>270.000đ / Hộp</t>
+          <t>150.000đ / Hộp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/3010463086026738196_1_0338e2ad27_10d5614f12.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08313_1efe9a74d1.jpg</t>
         </is>
       </c>
     </row>
@@ -981,17 +981,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Viên uống Calci K2 Dao Nordic Health bổ sung canxi, chống loãng xương (60 viên)</t>
+          <t>Siro Multi Vitamin Hatro hỗ trợ tăng cường sức khỏe, nâng cao sức đề kháng (120ml)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>365.000đ / Hộp</t>
+          <t>150.000đ / Hộp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345335_calci_k2_vien_bo_sung_canxi_ngua_loang_xuong_3579_62ae_large_0abcaf7b56.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08289_8048425d59.jpg</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Viên uống NutriGrow Nutrimed bổ sung canxi, vitamin D3, vitamin K2, hấp thu canxi (60 viên)</t>
+          <t>Thực phẩm bảo vệ sức khỏe Prenatal One Vitamins For Life cung cấp DHA, vitamin và khoáng chất</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>480.000đ / Hộp</t>
+          <t>660.000đ / Hộp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05520_3e8211d9fa.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00115_72e83dcffe.jpg</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Viên nang mềm NatureCare Omega 369 bổ sung Omega, giảm nguy cơ xơ vữa động mạch (6 vỉ x 20 viên)</t>
+          <t>Viên uống Natto Gold 3000FU Royal Care hỗ trợ hoạt huyết, tăng cường tuần hoàn não (60 viên)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>570.000đ / Hộp</t>
+          <t>295.000đ / Hộp</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09006_a1b4671cf5.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00503276_vien_uong_ho_tro_tang_cuong_tuan_hoan_nao_natto_gold_3000fu_royal_care_60v_8247_63ed_large_1d74618cb5.jpg</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Viên uống Omega 3-6-9 Pharmekal hỗ trợ giảm nguy cơ xơ vữa động mạch (100 viên)</t>
+          <t>Viên uống Omexxel Ginkgo 120 hỗ trợ tăng cường tuần hoàn máu não, tốt cho tim mạch (60 viên)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>319.000đ / Hộp</t>
+          <t>688.000đ / Hộp</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00005529_dau_ca_omega_369_my_5744_63d7_large_2e69b98de7.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09493_5c9f6d0911.jpg</t>
         </is>
       </c>
     </row>
@@ -1061,17 +1061,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Viên uống Prenatal One Vitamins For Life cung cấp DHA, Vitamin và khoáng chất thiết yếu (30 viên)</t>
+          <t>Nước giải rượu bia Ladodetox Nosamin Ladophar hỗ trợ giải rượu, bia, giảm khó chịu (10 gói x 15ml)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>365.000đ / Hộp</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021616_prenatal_one_30_vien_8270_6327_large_b7aaa7b503.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00502900_ladodetox_nosamin_10_goi_x_15ml_ho_tro_giai_ruou_bia_bao_ve_te_bao_gan_2028_639a_large_50f26dee42.jpg</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dung dịch Vitamin D3+ DHA Hatro Pharvina tăng sức đề kháng, giảm nguy cơ còi xương (20ml)</t>
+          <t>Bào tử lợi khuẩn Livespo DIA 30 hỗ trợ giảm các triệu chứng tiêu chảy cấp tính, rối loạn tiêu hoá (10 ống x 5ml)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>320.000đ / Hộp</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_0270_9483dadf83.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05147_afc678a00f.png</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe NMN PQQ</t>
+          <t>Viên uống Calci Nano Hải Thượng Vương bổ sung Calci, vitamin D3 cho cơ thể (60 viên)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6.675.000đ / Hộp</t>
+          <t>347.000đ / Hộp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03542_6bfa8a6508.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00130_14b87ced2e.jpg</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe G-TEEN Kenko hỗ trợ phát triển cho bé gái giai đoạn dậy thì (30 gói x 15g)</t>
+          <t>Viên uống Triple Strength Glucosamine 1500mg Pharmekal bổ sung dưỡng chất cho khớp (60 viên)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1.550.000đ / Hộp</t>
+          <t>326.000đ / Hộp</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04261_7bed2105fa.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00502520_vien_xuong_khop_triple_strength_glucosamine_1500mg_pharmekal_60v_4042_6356_large_467c9dcdf8.jpg</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe B-TEEN Kenko hỗ trợ phát triển cho bé trai giai đoạn dậy thì (30 gói x 15g)</t>
+          <t>Viên uống Liver Tonic 17500 GoodHealth hỗ trợ giải độc gan (60 viên)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1.550.000đ / Hộp</t>
+          <t>738.000đ / Chai</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04296_5a6bfce13c.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00502185_vien_uong_giai_doc_gan_good_health_liver_tonic_17500_60v_3731_6335_large_e0fe9b9ba7.jpg</t>
         </is>
       </c>
     </row>
@@ -1161,17 +1161,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Omexxel E400 hỗ trợ chống oxy hóa, tốt cho da (3 vỉ x 10 viên)</t>
+          <t>Viên uống Milk Thistle Pharma World hỗ trợ chống oxy hóa, giải độc gan (60 viên)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>264.000đ / Hộp</t>
+          <t>445.000đ / Hộp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08986_a3ca1e01d8.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501706_vien_uong_bao_ve_gan_pharma_world_milk_thistle_60v_3202_6302_large_c595132390.jpg</t>
         </is>
       </c>
     </row>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Viên uống proMUM DHA Alg bổ sung DHA cho phụ nữ có thai và cho con bú (3 vỉ x 10 viên)</t>
+          <t>Bột hòa tan Soki Deli cải thiện tình trạng biếng ăn, tăng cường tiêu hóa và hấp thu (18 gói x 4g)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>499.000đ / Hộp</t>
+          <t>360.000đ / Hộp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09300_68669e0539.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501623_soki_deli_18_goi_x_4g_4693_62fb_large_29dea8fcc9.jpg</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Viên uống proMUM New Live bổ sung các chất dinh dưỡng cho phụ nữ mang thai và cho con bú (2 vỉ x 15 viên)</t>
+          <t>Dung dịch Feginic bổ sung sắt cho người thiếu máu do thiếu sắt (4 vỉ x 5 ống x 5ml)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>319.000đ / Hộp</t>
+          <t>108.000đ / Hộp</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09314_a44e29a8b5.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501604_ong_uong_bo_sung_sat_feginic_4x5_ong_5ml_7086_62f9_large_b9aea30e80.jpg</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Viên uống proMUM Vomarin hỗ trợ giảm buồn nôn cho phụ nữ mang thai, tăng tiết sữa mẹ (2 vỉ x 15 viên)</t>
+          <t>Siro Ginkid GINIC thanh nhiệt mát gan (4 vỉ x 5 ống x 10ml)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>279.200đ / Hộp</t>
+          <t>92.000đ / Hộp</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09267_6b2553276f.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501602_ginkid_thanh_nhiet_mat_gan_4x5_ong_10ml_4026_62f9_large_66d619beec.jpg</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Viên uống proMUM New Start bổ sung vitamin và khoáng chất cho phụ nữ có kế hoạch mang thai (2 vỉ x 15 viên)</t>
+          <t>Siro Ginkid GINIC nhuận tràng, bổ sung chất xơ (3 vỉ x 5 ống x 10ml)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>329.000đ / Hộp</t>
+          <t>100.000đ / Hộp</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09286_e5de816ef0.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501601_ginkid_nhuan_trang_bo_sung_chat_xo_3x5_ong_10ml_2374_62f9_large_baf2c439a9.jpg</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Siro Canxi + D3K2 Hatro bổ sung canxi giúp xương, răng chắc khỏe (120ml)</t>
+          <t>Siro Ginkid ZinC bổ sung kẽm, hỗ trợ tăng sức đề kháng (4 vỉ x 5 ống x 5ml)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>180.000đ / Hộp</t>
+          <t>89.000đ / Hộp</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08302_ba4462d00d.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501600_ginkid_zinc_4x5_ong_5ml_bo_sung_kem_tang_de_khang_3041_62f9_large_02ba9ccad1.jpg</t>
         </is>
       </c>
     </row>
@@ -1281,17 +1281,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Siro Fer + Multi Hatro bổ sung sắt và Vitamin nhóm B cho cơ thể (120ml)</t>
+          <t>Siro Ginkid Ho Cam NEW 80ml hỗ trợ bổ phế, giảm ho, nhuận phế</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150.000đ / Hộp</t>
+          <t>59.000đ / Hộp</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08324_453bb032ed.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501599_siro_ginkid_hocam_new_80ml_ho_tro_giam_ho_bo_phe_1484_62fd_large_575a34209b.jpg</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1301,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Viên uống Calci K-2 Pharma World hỗ trợ giảm nguy cơ loãng xương (60 viên)</t>
+          <t>Dung dịch LiveSpo Clausy bổ sung lợi khuẩn, giúp cân bằng hệ vi sinh đường ruột (25 ống x 5ml)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>470.000đ / Hộp</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00503275_vien_uong_bo_sung_canxi_giam_nguy_co_loang_xuong_pharma_word_calci_k_2_60v_2299_63ed_large_322e824179.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03069_de090fdc3c.jpg</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Viên uống Premom Gold Jpanwell hỗ trợ phụ nữ trước giai đoạn mang thai (60 viên)</t>
+          <t>Viên uống Multivitamin +Zn +D3 Royal Care hỗ trợ tăng cường sức khỏe, nâng cao sức đề kháng (60 viên)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1.300.000đ / Hộp</t>
+          <t>175.000đ / Hộp</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00500357_vien_uong_ho_tro_phu_nu_truoc_khi_mang_thai_premom_gold_jpanwell_60v_8227_6298_large_ae1845b873.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08020_1cb976cef9.png</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Viên uống Vitamin E 400IU Nature's Bounty hỗ trợ chống oxy hóa, làm chậm quá trình lão hóa da (30 viên)</t>
+          <t>Viên uống Dr. Caci Ocavill giúp xương và răng chắc khỏe (60 viên)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>150.000đ / Hộp</t>
+          <t>570.000đ / Hộp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345398_vitamin_e_400_iu_5953_600f_large_f1fec5d4f6.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08680_827789c4f8.jpg</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Siro Special Kid Multivitamines bổ sung Vitamin và khoáng chất giúp tăng cường sức đề kháng (125ml)</t>
+          <t>Xịt họng Xuyên Tâm Liên Hải Thượng Vương hỗ trợ giảm ho, giảm đờm, giảm đau rát họng, khàn tiếng (30ml)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>254.000đ / Chai</t>
+          <t>106.000đ / Hộp</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00017886_special_kid_multivitamins_125ml_8621_5fb3_large_78ae9d56db.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345910_xit_hong_xuyen_tam_lien_hai_thuong_vuong_30ml_5572_6272_large_330958447c.jpg</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Siro Special Kid Calcium Vitamine D bổ sung Calci và Vitamin D giúp xương, răng chắc khỏe (125ml)</t>
+          <t>Xịt họng Propolis Ivy Royal Care giảm ho, đờm, đau rát họng, khản tiếng do viêm họng, viêm phế quản (20ml)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>254.000đ / Chai</t>
+          <t>77.000đ / Hộp</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00018636_special_kid_calcium_vitamine_d_eric_favre_125ml_strawberry_7590_5c51_large_c023869638.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345909_xit_hong_propolis_ivy_royal_care_20ml_8905_6271_large_2d8296074d.jpg</t>
         </is>
       </c>
     </row>
@@ -1401,17 +1401,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Siro Special Kid Appeti+ bổ sung các vitamin và khoáng chất, hỗ trợ tiêu hóa tốt (125ml)</t>
+          <t>Viên sủi Optimax Immunity Booster Vid-Fighter tăng cường sức đề kháng cho cơ thể (20 viên)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>254.000đ / Chai</t>
+          <t>118.000đ / Tuýp</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00018674_special_kid_appetit_eric_favre_125ml_orange_4746_5c84_large_74bc61ec0f.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033702_vien_uong_tang_suc_khang_optimax_immunity_booster_vid_fighter_20v_4698_62ae_large_b9fe136dbf.jpg</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Siro Special Kid Zinc Eric Favre Wellness bổ sung kẽm, hỗ trợ tăng sức đề kháng cho trẻ (125ml)</t>
+          <t>Siro Datadu Kingphar hỗ trợ hạn chế đau đầu, sốt, ho (4 vỉ x 5 ống x 10ml)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>254.000đ / Chai</t>
+          <t>82.000đ / Hộp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021694_special_kid_zinc_eric_favre_125ml_6593_62af_large_da861d0f7c.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033587_siro_datadu_kingphar_hop_4_vi_x_5_ong_10ml_ho_tro_han_che_dau_dau_sot_ho_7515_6230_large_77dc78b98a.jpg</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Viên uống Omexxel Calk2 bổ sung Canxi, Vitamin D3 (3 vỉ x 10 viên)</t>
+          <t>Viên uống Thymo-Glucan Kingphar nâng cao sức đề kháng, giúp cơ thể khỏe mạnh (3 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>360.000đ / Hộp</t>
+          <t>100.000đ / Hộp</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09350_52ddd56357.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033459_vien_uong_nang_cao_suc_de_khang_thymo_glucan_kingphar_3x10_6337_6233_large_c870aab8a8.jpg</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Vitamin E Kingphar bổ sung vitamin E, hỗ trợ chống oxy hóa (4 vỉ x 10 viên)</t>
+          <t>Viên uống Bifido Plus Jpanwell bổ sung các lợi khuẩn tăng cường sức khỏe đại tràng (30 viên)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>105.000đ / Hộp</t>
+          <t>990.000đ / Hộp</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028658_vitamin_e_kingphar_4x10_4232_5fcf_large_a36202c7e7.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033284_vien_uong_ho_tro_dai_trang_bifido_plus_jpanwell_30v_5543_61e9_large_9d369d6c67.jpg</t>
         </is>
       </c>
     </row>
@@ -1481,17 +1481,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dung dịch MorningKids Increase Height bổ sung vitamin, tăng chiều cao cho trẻ (150ml)</t>
+          <t>Cốm lợi sữa TT.Galac Traphaco hỗ trợ lợi sữa, tăng tiết sữa, giảm nguy cơ tắc tuyến sữa (20 gói x 3g)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>248.400đ / Chai</t>
+          <t>128.000đ / Hộp</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029660_morningkids_increase_height_150ml_2277_6019_large_9b0ddfcae9.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033177_com_loi_sua_ttgalac_20_goi_x_3g_5353_62ae_large_8eee019953.jpg</t>
         </is>
       </c>
     </row>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Viên uống Bone Builder Drlife bổ sung canxi và vitamin cho xương (60 viên)</t>
+          <t>Viên uống Bye Tree Royal Care hỗ trợ tăng sức bền thành mạch, giảm nguy cơ bị trĩ (60 viên)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>327.000đ / Hộp</t>
+          <t>250.000đ / Hộp</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08392_0461703d2a.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033184_vien_uong_giam_nguy_co_bi_tri_byetree_royal_care_60v_7820_62ae_large_12f9df6d9e.jpg</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1521,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dung dịch dạng xịt LineaBon K2+D3 10ml bổ sung Vitamin D3 và Vitamin K2, hỗ trợ hấp thu canxi</t>
+          <t>Viên uống B Complex Vitamin Royal Care hỗ trợ giảm mệt mỏi, căng thẳng (60 viên)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>330.000đ / Hộp</t>
+          <t>160.000đ / Hộp</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04736_15a585f3cb.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032942_b_complex_vitamin_royal_care_60v_5253_61c0_large_17e5e39343.jpg</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khỏe Bioamicus Omega-3 hỗ trợ tốt cho mắt và não (30ml)</t>
+          <t>Viên bổ thận Kidney Plus Jpanwell hỗ trợ bổ thận, duy trì đường tiết niệu khỏe mạnh (60 viên)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>385.000đ / Hộp</t>
+          <t>990.000đ / Hộp</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_02549_f5641ec3b0.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032921_vien_uong_bo_than_kidney_plus_jpanwell_60v_9615_61aa_large_d59282942e.jpg</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1561,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sắt Ferrolip Uga hỗ trợ tạo hồng cầu, giúp giảm nguy cơ thiếu máu do thiếu sắt (20 gói)</t>
+          <t>Viên uống Dr. Liver Jpanwell bổ gan, tăng cường giải độc gan (60 viên)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hộp</t>
+          <t>990.000đ / Hộp</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00036_5a330d8081.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032920_vien_uong_thai_doc_gan_dr_liver_jpanwell_60v_5501_61a5_large_2fccd9ea7b.JPG</t>
         </is>
       </c>
     </row>
@@ -1581,17 +1581,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Siro Wellbaby Multi-Vitamin Liquid Vitabiotics bổ sung vitamin và khoáng chất cho trẻ (150ml)</t>
+          <t>Viên uống Glucosamine And Chondroitin Jpanwell hỗ trợ bổ sung chất nhờn dịch khớp (120 viên)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>412.000đ / Hộp</t>
+          <t>960.000đ / Hộp</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00535_480fad02f8.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032918_glucosamine_and_chondroitin_jpanwell_120v_9745_61a5_large_41ffa86dc1.JPG</t>
         </is>
       </c>
     </row>
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kẹo con vịt Vitamin C 10mg hỗ trợ tăng cường đề kháng cho cơ thể</t>
+          <t>Viên Sáng Mắt Hải Thượng Vương hỗ trợ tăng cường thị lực (60 viên)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5.500đ / Chai</t>
+          <t>180.000đ / Hộp</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00120_e6778084f9.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032867_vien_sang_mat_hai_thuong_vuong_60v_8865_61af_large_ce9a194628.jpg</t>
         </is>
       </c>
     </row>
@@ -1621,17 +1621,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dung dịch Feroglobin B12 Vitabiotics hỗ trợ tăng khả năng tạo máu, tăng cường sức khỏe (200ml)</t>
+          <t>Viên uống Blood Care Jpanwell hỗ trợ bổ máu, giảm nguy cơ thiếu máu do thiếu sắt (60 viên)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>358.000đ / Chai</t>
+          <t>995.000đ / Hộp</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00573_5a11c40ed0.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032817_blood_care_jpanwell_60v_3261_61ad_large_ce1b030baa.jpg</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dung dịch Ferrolip Baby InPharma SpA bổ sung sắt, giảm nguy cơ thiếu máu (30ml)</t>
+          <t>Viên nén Multi Vitas Lab Well bổ sung vitamin và khoáng chất cho cơ thể (60 viên)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>295.000đ / Hộp</t>
+          <t>340.000đ / Hộp</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09640_0c7fac2417.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08333_0d6a18e346.jpg</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1661,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Viên uống DHC Vitamin C Hard bổ sung vitamin C, vitamin B2 cho cơ thể (60 viên)</t>
+          <t>Viên uống Sâm - Đông Trùng Hạ Thảo Kotimogin tăng cường sức khỏe (20 vỉ x 3 viên)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>90.000đ / Gói</t>
+          <t>350.000đ / Hộp</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09456_d8bf7244c8.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345360_dong_trung_ha_thao_kotimogin_8015_6328_large_9b0f3b92a7.jpg</t>
         </is>
       </c>
     </row>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Viên uống DHC Zinc bổ sung kẽm cho cơ thể, hỗ trợ duy trì sức khỏe (30 viên)</t>
+          <t>Viên uống Teens Active Vitamins For Life bổ sung vitamin và khoáng chất cho thanh thiếu niên (60 viên)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>100.000đ / Gói</t>
+          <t>350.000đ / Hộp</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501635_dhc_zinc_30v_5817_62fb_large_7d724d9b77.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345388_teens_active_bo_sung_vitamin_cho_thieu_nien_5186_63a9_large_c8259bcfea.jpg</t>
         </is>
       </c>
     </row>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Siro Smartbibi Zinc GRICAR bổ sung kẽm, vitamin C giúp tăng sức đề kháng, cải thiện tình trạng biếng ăn (30ml)</t>
+          <t>Viên uống Ultra Brain Lab Well hỗ trợ bổ sung DHA, EPA cho cơ thể (60 viên)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>275.000đ / Chai</t>
+          <t>239.000đ / Hộp</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/zinc_4_098450ce4b.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08409_f2ebe99545.jpg</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Siro Gadopax Forte hỗ trợ tăng sức đề kháng của cơ thể (100ml)</t>
+          <t>Viên uống Gasso Max Vitamins For Life bổ sung enzyme và các thảo mộc, hỗ trợ tiêu hóa tốt (30 viên)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>298.000đ / Hộp</t>
+          <t>335.000đ / Chai</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/gadopax_1_aa2c5330c2.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345419_gasso_max_thao_duoc_ho_tro_tieu_hoa_9444_6328_large_1a28a201ca.jpg</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Viên nhai Brauer Baby &amp; Kids Ultra Pure DHA hỗ trợ phát triển não bộ, sức khỏe cho mắt (60 viên)</t>
+          <t>Viên uống Milk Thistle Nature's Bounty hỗ trợ tăng cường chức năng gan, bảo vệ gan (50 viên)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>388.800đ / Hộp</t>
+          <t>282.000đ / Hộp</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_6419_0eba9e2e71.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09838_9cf799719b.jpg</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dung dịch Osteocare Liquid Vitabiotics bổ sung canxi, magiê, vitamin D, kẽm giúp xương chắc khỏe (200ml)</t>
+          <t>Viên uống Echina Kingphar hỗ trợ tăng cường sức đề kháng (30 viên)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>311.000đ / Hộp</t>
+          <t>57.000đ / Hộp</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00558_30d8907b03.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3635_949f7e0fd3.jpg</t>
         </is>
       </c>
     </row>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Viên uống Elevit Bayer hỗ trợ tăng cường sức khỏe, nâng cao sức đề kháng cho thai kỳ (3 vỉ x 10 viên)</t>
+          <t>Viên uống Lutein Nature's Bounty giúp tăng cường thị lực cho mắt (30 viên)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>347.700đ / Hộp</t>
+          <t>256.000đ / Hộp</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033208_vitamin_tong_hop_elevit_bau_bayer_3x10_9269_61de_large_296df133e8.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345423_lutein_vien_uong_bo_mat_cua_my_1869_62af_large_647c6c3d64.jpg</t>
         </is>
       </c>
     </row>
@@ -1801,17 +1801,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cốm lợi sữa Mum Milk GOD HEALTH tăng tiết sữa, tăng chất lượng sữa (20 gói x 3g)</t>
+          <t>Viên uống Hair Volume New Nordic giúp tóc chắc khỏe, đẹp tóc, hạn chế rụng tóc (30 viên)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hộp</t>
+          <t>630.000đ / Hộp</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3609_d833a79a82.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345353_hair_volume_vien_uong_duong_toc_7952_62af_large_46a5a99e57.jpg</t>
         </is>
       </c>
     </row>
@@ -1821,17 +1821,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Viên sủi MyVita Multi SPM vị cam bổ sung Vitamin và khoáng chất (20 viên)</t>
+          <t>Viên uống Gout Aid Vitamins For Life hỗ trợ giảm triệu chứng ở người bị gout (30 viên)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>25.000đ / Tuýp</t>
+          <t>380.000đ / Hộp</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00005080_myvita_cam_5153_62ae_large_c867e14221.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345417_gout_aid_ho_tro_dieu_tri_gout_8900_63e1_large_128ee0ed15.jpg</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Viên sủi Plusssz Gold Max vị cam bổ sung vitamin và khoáng chất cho cơ thể (20 viên)</t>
+          <t>Viên uống Colon Care Vitamins For Life giúp nhuận tràng, giảm táo bón (60 viên)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>40.000đ / Tuýp</t>
+          <t>390.000đ / Hộp</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00006012_plusssz_max_multi_9735_62ae_large_7b93afc57f.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345421_colon_care_vien_uong_nhuan_trang_8278_63e1_large_24e0f02a41.jpg</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1861,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Dung dịch LineaBon K2+D3 ErgoPharm hỗ trợ bổ sung Vitamin (10ml)</t>
+          <t>Viên uống LiverWell Navi hỗ trợ thanh nhiệt, mát gan, giải độc (12 vỉ x 5 viên)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>295.000đ / Hộp</t>
+          <t>140.000đ / Hộp</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00167_7b53af64ca.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3677_c2d86baac2.jpg</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Viên nén Osteocare Vitabiotics bổ sung canxi, khoáng chất cho xương chắc khoẻ (2 vỉ x 15 viên)</t>
+          <t>Viên uống Sâm Nhung Bổ Thận NV Dolexpharm hỗ trợ tráng dương, tăng cường sinh lực (30 viên)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>257.000đ / Hộp</t>
+          <t>125.000đ / Hộp</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/Osteocare_Tabs_F1_MR_3f805e94c4.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3754_319065b5fe.jpg</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Viên uống Feroglobin B12 Vitabiotics hỗ trợ tăng khả năng tạo máu, tăng cường sức khỏe (30 viên)</t>
+          <t>Viên nang cứng Triple Care Gold Vitamins For Life Hỗ trợ tăng tiết dịch khớp, giảm thoái hóa khớp (60 viên)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>363.000đ / Hộp</t>
+          <t>650.000đ / Hộp</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09612_482a78bdc1.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08943_5e553c7570.jpg</t>
         </is>
       </c>
     </row>
@@ -1921,17 +1921,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Viên uống Pharmaton Energy hỗn hợp vitamin và khoáng chất giúp tỉnh táo, hỗ trợ giảm mệt mỏi (30 viên)</t>
+          <t>Viên uống Nanocurcumin Tam Thất Xạ Đen Plus giảm viêm loét dạ dày, tá tràng (3 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>186.750đ / Hộp</t>
+          <t>312.000đ / Hộp</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_6437_6c617a14fe.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00017023_nanocurcumin_plus_tam_that_xa_den_hvqy_3x10_7200_6327_large_ab69a38711.jpg</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dung dịch Biomicus For Infants And Children Vitamin K2 And D3 hỗ trợ tốt cho xương, răng của bé (10ml)</t>
+          <t>Siro bổ phế Bối Mẫu Forte Mom And Baby hỗ trợ bổ phổi ích phế, giảm ho (125ml)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>330.000đ / Hộp</t>
+          <t>55.000đ / Chai</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09663_4125cf4a43.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00017891_boi_mau_forte_tat_thanh_125ml_siro_bo_phe_4358_5e14_large_b7787fb760.jpg</t>
         </is>
       </c>
     </row>
@@ -1961,17 +1961,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Siro Biolizin tăng cường sức đề kháng cho cơ thể (50ml)</t>
+          <t>Viên uống Super Chromium 250mcg NatureCare cân bằng đường huyết, giảm cholesterol (90 viên)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>295.000đ / Hộp</t>
+          <t>478.000đ / Hộp</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04191_1a0299a5b1.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08429_6bfd2a9a5d.jpg</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Siro Pediakid Vitamin D3 bổ sung Vitamin D cho cơ thể, tăng hấp thụ canxi (20ml)</t>
+          <t>Thực phẩm bảo vệ sức khỏe Natural Vitamin E 400 IU giúp cải thiện sức khỏe da và phục hồi da (60 viên)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>205.800đ / Chai</t>
+          <t>251.000đ / Hộp</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00010190_pediakid_vitamin_d3_20ml_1221_5fc0_large_731c4b15e1.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08384_9ef40feeb4.jpg</t>
         </is>
       </c>
     </row>
@@ -2001,17 +2001,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Siro Pediakid 22 Vitamines bổ sung Vitamin và khoáng chất (125ml)</t>
+          <t>Viên uống Ăn Ngon Ngủ Ngon hỗ trợ ăn ngon, ngủ ngon (30 viên)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>202.500đ / Chai</t>
+          <t>115.000đ / Hộp</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00010189_pediakid_22_vitamin_9397_5c51_large_6111342a72.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3772_fdd66d6aa4.jpg</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2021,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dung dịch uống Conipa CPC1 Hà Nội bổ sung kẽm, tăng cường sức đề kháng cho cơ thể (4 vỉ x 5 ống x 5ml)</t>
+          <t>Dung dịch Ăn Ngon - Bé Khỏe BBear hỗ trợ tăng cường tiêu hóa, giúp ăn ngon (4 vỉ x 5 ống)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hộp</t>
+          <t>88.000đ / Hộp</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028194_conipa_cpc1_4x5_ong_5ml_9065_5fad_large_d74ad5ea8e.JPG</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/123_2386efadd6.jpg</t>
         </is>
       </c>
     </row>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Viên uống Pregnacare Breast Feeding Vitabiotics bổ sung vitamin và khoáng chất cho phụ nữ cho con bú (6 vỉ x 14 viên)</t>
+          <t>Viên uống Active Legs hỗ trợ điều trị suy giãn tĩnh mạch chân (15 viên)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>712.000đ / Hộp</t>
+          <t>340.000đ / Hộp</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00041_166a58ac15.png</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00020313_active_legs_15v_thien_minh_3051_6327_large_96908d2f5e.jpg</t>
         </is>
       </c>
     </row>
@@ -2061,17 +2061,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Viên uống Pregnacare Max Omega 3 DHA Vitabiotics cung cấp vitamin và khoáng chất cho phụ nữ mang thai (84 viên)</t>
+          <t>Viên uống Bamogin Thành Công tăng cường tuần hoàn não, cải thiện trí nhớ (6 vỉ x 10 viên)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>550.000đ / Hộp</t>
+          <t>160.000đ / Hộp</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09656_15864f3741.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3705_1411770d9a.jpg</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2081,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Viên uống 5-MTHF Plus bổ sung một số vitamin và khoáng chất cho cơ thể (3 vỉ x 10 viên)</t>
+          <t>Viên uống Mega-Cal 1000 Vitamins For Life giúp bổ sung canxi, chống loãng xương (60 viên)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>450.000đ / Hộp</t>
+          <t>320.000đ / Hộp</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00035_92033a4b41.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08888_30b53ffbee.jpg</t>
         </is>
       </c>
     </row>
@@ -2101,17 +2101,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Thực phẩm bảo vệ sức khoẻ Pregnacare Original Vitabiotics giúp bổ sung vitamin, khoáng chất cho phụ nữ mang thai và cho con bú (2 vỉ x 15 viên)</t>
+          <t>Bào tử lợi khuẩn LiveSpo PREG-MOM bổ sung lợi khuẩn đường ruột (20 ống x 5ml)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>293.600đ / Hộp</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00437_Recovered_e28e272a49.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_0146_cadd28fce0.jpg</t>
         </is>
       </c>
     </row>
@@ -2121,17 +2121,1777 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Xịt họng Dimao Pro Oral Spray D3 + K2 hỗ trợ bổ sung vitamin D và vitamin K2 cho cơ thể (25ml)</t>
+          <t>Dung dịch LiveSpo Colon bổ sung vi sinh vật có lợi, kích thích và tăng cường tiêu hóa (20 ống x 5ml)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>352.000đ / Hộp</t>
+          <t>Hộp</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09623_e15fcd1307.jpg</t>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021585_livespo_colon_phoenik_20_ong_x_5ml_1708_62e8_large_85f5365830.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Viên uống Shark Cartilage NatureCare hỗ trợ tăng cường khả năng vận động linh hoạt và bôi trơn khớp (Hộp 60 viên)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>371.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08419_401cd4a3eb.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khoẻ Glutasi giúp làm đẹp da, chống lão hóa (60 viên)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>930.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08634_4ae97b983e.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Viên uống Best King Jpanwell hỗ trợ tăng cường sinh lý và khả năng sinh sản ở nam giới (60 viên)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1.300.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021931_best_king_jpanwell_60v_5419_5f92_large_ebf4650be2.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Viên uống Happy Mom Jpanwell bổ sung vitamin và khoáng chất (60 viên)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>815.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021932_happy_mom_jpanwell_60v_5688_5ff7_large_8cba32414f.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Viên uống Anica Ocavill bổ sung Canxi và Vitamin D3 (60 viên)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>560.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01865_3fa66c5ff7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Dung dịch xịt họng Sedagol Pro-Bio hỗ trợ bảo vệ vùng họng, giảm ho, viêm họng, dịu họng (30ml)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>169.000đ / Chai</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00022773_sedagol_pro_bio_30ml_5837_61b3_large_a04e12389b.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Viên uống Valena Kingphar giúp an thần, hỗ trợ dễ ngủ (4 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>86.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09293_d4338c005f.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Viên uống Ấn Thủy Vương Kingphar bổ thận, giảm tiêu đêm, tiểu ngày nhiều lần (4 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>105.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09323_d9d01e4630.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Viên uống Omexxel 3-6-9 tốt cho trí não, giúp bổ mắt (100 viên)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>378.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09409_77358c32d7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Viên uống Maca F Female hỗ trợ tăng cường nội tiết tố nữ, tăng khả năng sinh lý (60 viên)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>660.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028719_maca_f_female_empower_60v_1127_5f62_large_1cfb41e9b6.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Viên uống Maca M Male Power hỗ trợ bổ thận, tráng dương (60 viên)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>660.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028718_maca_m_male_power_60v_7335_5f62_large_ee96a5fd36.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Viên uống Euro Ginko Gold HD Pharma hỗ trợ hoạt huyết, tăng cường tuần hoàn máu não (100 viên)</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>185.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029140_euro_ginko_gold_hdpharma_100v_5431_63a9_large_07698181e4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Viên uống Lipitas Jpanwell giúp giảm mỡ, cholesterol và triglyceride trong máu (60 viên)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>995.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029360_lipitas_jpanwell_60v_4493_6006_large_eed588f6b1.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Dung dịch MorningKids Good Appetite tăng cường tiêu hóa, giúp ăn ngon miệng (150ml)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>295.000đ / Chai</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029659_morningkids_good_appetite_150ml_7292_6019_large_71516ada07.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Siro Morningkids Multivitamin Bổ sung Vitamin và khoáng chất (150ml)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>275.000đ / Chai</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029661_morningkids_multivitamin_150ml_8912_6019_large_85f579207c.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Viên uống Omega-3 For Kids Nutrimed giúp trẻ phát triển trí não, thị lực (100 viên)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>450.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029877_omega_3_for_kids_300mg_nutrimed_international_100v_6416_633e_large_20c893600c.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Viên uống Active Lung New Nordic hỗ trợ thông khí phổi, viêm phế quản, hen suyễn (2 vỉ x 15 viên)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>415.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00030434_active_lung_400mg_new_nordic_2x15_5527_62af_large_540fd1573e.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Viên uống Bawod Calcium Plus bổ sung canxi, vitamin D3 giúp răng, xương chắc khỏe (60 viên)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>125.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00030512_baywod_calcium_plus_hdpharma_60v_7518_6091_large_59f87bda37.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Viên uống Vitatree Glucosamine 1500 Plus Shark Cartilage hỗ trợ duy trì chức năng của khớp (100 viên)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>643.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00030788_vitatree_glucosamine_1500_plus_shark_cartilage_bpure_100v_6986_623d_large_30d123603b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Viên uống Hoạt Huyết Thông Mạch Hoàng Gia Royal Care tăng cường tuần hoàn não (3 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>95.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3661_fc21bd2e17.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Viên uống Omexxel Ginkgo 120 tăng cường tuần hoàn máu não, tốt cho tim mạch (2 vỉ x 15 viên)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>364.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09340_3ff6e5fa6d.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Viên uống C 500mg Nature's Bounty bổ sung vitamin C, tăng cường sức đề kháng (100 viên)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>325.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00031901_vien_uong_bo_sung_vitamin_c_natures_bounty_time_released_c_500mg_100v_6031_62ae_large_f8e2ab95d4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Viên uống Dạ Dày Hải Thượng Vương hỗ trợ giảm acid dịch vị, bảo vệ niêm mạc dạ dày (30 viên)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>315.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09959_504f8a9544.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Viên uống Trùng Thảo Gold Thành Công hỗ trợ dễ ngủ, ngủ sâu giấc (30 viên)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>185.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09686_5bc4a3484f.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Viên uống KenKan Nattokinase 2400FU giảm nguy cơ hình thành huyết khối, tăng cường lưu thông máu (60 viên)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>515.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09674_24a98c9335.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Viên uống Calcium Magnesium Zinc Nature's Bounty hỗ trợ duy trì sức khoẻ hệ xương (100 viên)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>270.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/3010463086026738196_1_0338e2ad27_10d5614f12.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Viên uống Calci K2 Dao Nordic Health bổ sung canxi, chống loãng xương (60 viên)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>365.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345335_calci_k2_vien_bo_sung_canxi_ngua_loang_xuong_3579_62ae_large_0abcaf7b56.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Sâm Nhung Bổ Thận TW3 Platinum hỗ trợ bổ thận tráng dương (60 viên)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>688.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/1_9e25b37d79.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Viên uống Kanzo Gold hỗ trợ tăng cường chức năng gan, cải thiện tình trạng mẫn ngứa, vàng da (60 viên)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>960.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05265_70502b89e4.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Viên uống Bổ Não Ích Trí Gold tăng cường tuần hoàn não (60 viên)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>210.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03095_5bbcaaa64b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Dung dịch Bio Plus 15g Kenko bổ sung vi khuẩn có lợi cho hệ tiêu hóa, cân bằng đường ruột (10 gói)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>560.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01888_3d01e5bc4d.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Viên uống Relax Plus Jpanwell hỗ trợ giảm đau khớp, khó vận động do viêm khớp (60 viên)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>990.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_01799_a520be3edf.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Viên uống NutriGrow Nutrimed bổ sung canxi, vitamin D3, vitamin K2, hấp thu canxi (60 viên)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>480.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05520_3e8211d9fa.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Viên nang cứng Hemor Gold Jpanwell hỗ trợ tốt cho người bị trĩ (60 viên)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>920.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08962_ce1bf65c0a.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Viên nang mềm NatureCare Omega 369 bổ sung Omega, giảm nguy cơ xơ vữa động mạch (6 vỉ x 20 viên)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>570.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09006_a1b4671cf5.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Viên uống Ocavill hỗ trợ tăng cường chức năng gan, giải độc gan, bảo vệ gan (4 vỉ x 15 viên)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>550.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08517_92ba1f8642.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Viên nang cứng Naturenz Gold DHG Pharma hỗ trợ giảm các triệu chứng của viêm gan (100 viên)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>350.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03818_c33219d20c.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Viên uống Kaki Ekisu Tohchukasou Kenkan hỗ trợ tăng cường sinh lý nam giới (60 viên)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>515.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00502603_vien_uong_tang_cuong_chuc_nang_sinh_ly_nam_kenkan_kaki_ekisu_tohchukasou_60v_3488_6371_large_7c3a87ff1d.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe Hana Colla Q10</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>970.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00502062_nuoc_uong_collagen_jpanwell_hana_colla_q10_10_chai_x_50ml_5871_6322_large_ea79e89fee.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Viên uống Brain Support Pharma World hỗ trợ sức khỏe cho não (60 viên)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>425.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501705_vien_uong_bo_nao_pharma_world_brain_support_60v_6662_6302_large_80bd36178f.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Viên uống Si-Liver Naga Vesta giúp tăng cường miễn dịch, phục hồi và bảo vệ gan (60 viên)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>225.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00501112_si_liver_naga_super_vesta_60v_7443_6371_large_5c6c7b2847.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Viên uống JP Lady Jpanwell cung cấp vitamin hỗ trợ phụ nữ giai đoạn tiền mãn kinh (60 viên)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1.300.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_07330_24931f6918.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Viên uống Lung Care+ Jpanwell hỗ trợ hệ hô hấp, giúp phổi khỏe mạnh (60 viên)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>995.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00500354_vien_uong_bo_phoi_lung_care_jpanwell_60v_2989_6298_large_555c3d0685.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Siro Nopanho Kingphar giúp bổ phế, hạn chế ho nhiều (125ml)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>37.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033525_nopanho_siro_bo_phe_giam_ho_125ml_3140_62ae_large_4be002a6ac.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Viên uống Hato Gold Jpanwell cải thiện tim mạch, giảm khó thở, mệt mỏi, đau tức ngực (60 viên)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>995.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032923_vien_uong_cai_thien_tim_mach_hato_gold_jpanwell_60v_8446_61aa_large_da46bcb91d.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Viên uống Gaba Jpanwell giảm các triệu chứng mất ngủ, khó ngủ, giấc ngủ không sâu (60 viên)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>960.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032917_vien_uong_giup_ngu_ngon_an_than_gaba_jpanwell_60v_8292_61a5_large_ee00cb0747.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Viên uống Okinawa Fucoidan +++ Jpanwell hỗ trợ tăng cường sức để kháng và trung hòa các gốc tự do (30 viên)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>995.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032884_okinawa_fucoidan_jpanwell_3x10_1585_62af_large_9aadf89229.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Viên uống Onagre Cevrai hỗ trợ giảm quá trình oxy hóa, giúp cải thiện độ ẩm cho da, giúp da sáng đẹp (60 viên)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>520.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04290_970e0b42f8.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Viên uống NattocereBest 1000-Q10 Navi hỗ trợ làm tan huyết khối, giảm nguy cơ tai biến mạch máu não (3 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>140.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345371_nattocerebest_vien_uong_bo_nao_tro_tim_9182_5f97_large_a7111d1ebd.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Viên uống Cholesterol Aid Vitamins For Life hỗ trợ giảm cholesterol (60 viên)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>435.000đ / Chai</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345418_cholesterol_aid_ho_tro_giam_cholesterol_1929_63e1_large_9655044105.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe Hydrolyzed Collagen With Vitamin C hỗ trợ chống oxy hoá (90 viên)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>550.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345339_collagen_with_vitamin_c_vien_bo_sung_collagen_1653_5fd9_large_cb88640c41.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Viên uống Omega 3-6-9 Pharmekal hỗ trợ giảm nguy cơ xơ vữa động mạch (100 viên)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>319.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00005529_dau_ca_omega_369_my_5744_63d7_large_2e69b98de7.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Viên uống Co Enzyme Q10 &amp; Evening primrose Thành Công hỗ trợ chức năng tim mạch (30 viên)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>141.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09283_ecc9edc71d.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe Sắc Ngọc Khang++ hỗ trợ làm đẹp da, hạn chế sạm da, nám da (60 viên)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>479.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09778_398f8a068f.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Viên uống Ginkgo Biloba 60mg Nature's Bounty hỗ trợ tăng cường tuần hoàn não (60 viên)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>228.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00003337_ginkgo_biloba_60mg_60v_natures_bounty_8579_63db_large_dc0d941fcd.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Viên uống Prenatal One Vitamins For Life cung cấp DHA, Vitamin và khoáng chất thiết yếu (30 viên)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>365.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021616_prenatal_one_30_vien_8270_6327_large_b7aaa7b503.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Viên uống Uricare Jpanwell giúp giảm axit uric trong máu (60 viên)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>995.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00021930_uricare_60v_2657_6007_large_4f5c9e57c5.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Viên uống Qee Tree Kingphar tăng độ bền thành mạch, nhuận tràng, chống táo bón (60 viên)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>212.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09336_85012f1fc1.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Viên uống Diệp Hạ Châu Kingphar hỗ trợ bảo vệ gan, tăng cường chức năng gan (60 viên)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>81.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_00141_385dd8864f.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Viên uống Herba Hair Kingphar bổ huyết, hỗ trợ làm đen tóc (60 viên)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>172.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028589_herba_hair_kingphar_new_60v_7472_63a9_large_c95189546b.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Viên uống Liverwell Nutrimed hỗ trợ giải độc gan giúp hỗ trợ giải độc gan, bảo vệ tế bào gan (60 viên)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>460.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09561_716c521238.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Viên uống T.Đ Kingphar hỗ trợ giảm đường huyết, giúp giảm nguy cơ biến chứng do đái tháo đường (60 viên)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>150.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00028662_td_kingphar_60v_2003_5fcf_large_7a420796bf.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Dung dịch Vitamin D3+ DHA Hatro Pharvina tăng sức đề kháng, giảm nguy cơ còi xương (20ml)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>320.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_0270_9483dadf83.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Viên uống Evening Primrose Oil (EPO) 1000mg Good Health cải thiện nội tiết tố nữ, làm đẹp da (70 viên)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>504.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029096_evening_primrose_oil_epo_1000mg_goodhealth_70v_8018_62ae_large_3ef28d8fcf.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Viên uống Medsulin Gold Jpanwell giúp hạ đường huyết, hỗ trợ chuyển hóa đường (60 viên)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>995.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029361_medsulin_gold_jpanwell_60v_6910_6006_large_baf2361500.JPG</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Viên uống Prostate Fort Vitamins For Life hỗ trợ sức khỏe tuyến tiền liệt nam giới (30 viên)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>435.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00029880_prostate_fort_200mg_vitamins_for_life_30v_2149_6331_large_7ea35e64bc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Viên uống Sinus Nose Vitamins For Life hỗ trợ tăng cường sức khỏe đường hô hấp (30 viên)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>290.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032699_sinus_nose_ho_tro_duong_ho_hap_vitamins_for_life_30v_5821_63a9_large_2e96a561c6.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Viên uống Ostelin Calcium &amp; Vitamin D3 Sanofi giúp tăng hấp thụ canxi, duy trì xương và răng chắc khỏe (130 viên)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>318.250đ / Lọ</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_02698_05d0cf66af.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Viên uống Ostelin Calcium &amp; Vitamin D3 Sanofi giúp tăng hấp thụ canxi, duy trì xương và răng chắc khỏe (30 viên)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>135.000đ / Lọ</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_02689_090269f43c.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Viên uống Ashami Gold hỗ trợ cải thiện tình trạng lo âu, cải thiện giấc ngủ (60 viên)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1.250.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09367_6c5019994e.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Viên uống Medsulin Plus hỗ trợ cải thiện chỉ số đường huyết (60 viên)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>960.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09206_c0047d3e7d.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe NMN PQQ</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>6.675.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_03542_6bfa8a6508.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Viên uống Ultra Liver Cleanser Vitamins For Life hỗ trợ giải độc gan, giúp bảo vệ gan (30 viên)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>390.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05086_338563d57f.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Viên uống King Fucoidan Jpanwell tăng cường sức khỏe và trung hòa gốc tự do (120 viên)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>6.800.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05162_0448810c3f.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe SIRO G+ Kenko hỗ trợ tăng đề kháng, giảm các triệu chứng trên đường hô hấp trên (100ml)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>320.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04982_5f8a3daa73.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe SIRO Q+ KenKo hỗ trợ đường hô hấp (100ml)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>320.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_05009_c7a02043dc.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Viên uống bổ xương khớp Premium Omexxel Bone Health (60 viên)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>539.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09545_3d47c5a843.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khoẻ Omexxel Collagen giúp làm chậm quá trình lão hóa da (3 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>380.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09362_e65ae5f420.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Viên uống Premium Omexxel Colon Health bổ sung lợi khuẩn, hỗ trợ giảm rối loạn tiêu hóa (60 viên)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>649.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09575_9d277a67c4.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Viên uống Premium Omexxel Blood Sugar Health hỗ trợ ổn định đường huyết (60 viên)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>595.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09562_e7057bdf13.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Viên uống Premium Omexxel Strong Hepa hỗ trợ bảo vệ gan (60 viên)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>595.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09531_f0e3b71939.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe Premium Omexxel Skin, Hair &amp; Nails Health bổ sung collagen, giúp làm đẹp da, tóc, móng (60 viên)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>595.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09513_3497ba7c28.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Viên uống Premium Omexxel Memory Health hỗ trợ tốt cho não bộ (60 viên)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>539.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09456_07e138ad93.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe G-TEEN Kenko hỗ trợ phát triển cho bé gái giai đoạn dậy thì (30 gói x 15g)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1.550.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04261_7bed2105fa.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe B-TEEN Kenko hỗ trợ phát triển cho bé trai giai đoạn dậy thì (30 gói x 15g)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1.550.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_04296_5a6bfce13c.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Viên nang mềm Omexxel Cordy hỗ trợ tăng sức đề kháng (3 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>330.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08972_ee55f0ab01.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Thực phẩm bảo vệ sức khỏe Omexxel E400 hỗ trợ chống oxy hóa, tốt cho da (3 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>330.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08986_a3ca1e01d8.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Viên nang mềm Omexxel Arthri hỗ trợ tăng tiết dịch khớp, giảm đau do lão hóa khớp (3 vỉ x 10 viên)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>380.000đ / Hộp</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08996_917372c13c.jpg</t>
         </is>
       </c>
     </row>
